--- a/Beijing Inn Order System/AddressList.xlsx
+++ b/Beijing Inn Order System/AddressList.xlsx
@@ -15,12 +15,15 @@
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$3000</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12072" uniqueCount="5686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12072" uniqueCount="5704">
   <si>
     <t>Rochester</t>
   </si>
@@ -17078,6 +17081,60 @@
   </si>
   <si>
     <t>ME5 9UB</t>
+  </si>
+  <si>
+    <t>ME5 0AB</t>
+  </si>
+  <si>
+    <t>ME5 0AD</t>
+  </si>
+  <si>
+    <t>ME5 0AE</t>
+  </si>
+  <si>
+    <t>ME5 0AG</t>
+  </si>
+  <si>
+    <t>ME5 0AH</t>
+  </si>
+  <si>
+    <t>ME5 0AJ</t>
+  </si>
+  <si>
+    <t>ME5 0AL</t>
+  </si>
+  <si>
+    <t>ME5 0AN</t>
+  </si>
+  <si>
+    <t>ME5 0AP</t>
+  </si>
+  <si>
+    <t>ME5 0AR</t>
+  </si>
+  <si>
+    <t>ME5 0AS</t>
+  </si>
+  <si>
+    <t>ME5 0AT</t>
+  </si>
+  <si>
+    <t>ME5 0AU</t>
+  </si>
+  <si>
+    <t>ME5 0AW</t>
+  </si>
+  <si>
+    <t>ME5 0AX</t>
+  </si>
+  <si>
+    <t>ME5 0AY</t>
+  </si>
+  <si>
+    <t>ME5 0AZ</t>
+  </si>
+  <si>
+    <t>ME5 0BA</t>
   </si>
 </sst>
 </file>
@@ -17608,7 +17665,18 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -17886,8 +17954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E4025"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3076" workbookViewId="0">
-      <selection activeCell="G3001" sqref="G3001"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3093" sqref="J3093"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -68894,7 +68962,7 @@
     </row>
     <row r="3002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3002" t="s">
-        <v>4151</v>
+        <v>5686</v>
       </c>
       <c r="B3002" t="s">
         <v>4152</v>
@@ -68911,7 +68979,7 @@
     </row>
     <row r="3003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3003" t="s">
-        <v>4151</v>
+        <v>5687</v>
       </c>
       <c r="B3003" t="s">
         <v>1464</v>
@@ -68928,7 +68996,7 @@
     </row>
     <row r="3004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3004" t="s">
-        <v>4151</v>
+        <v>5688</v>
       </c>
       <c r="B3004" t="s">
         <v>4152</v>
@@ -68945,7 +69013,7 @@
     </row>
     <row r="3005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3005" t="s">
-        <v>4151</v>
+        <v>5689</v>
       </c>
       <c r="B3005" t="s">
         <v>4153</v>
@@ -68962,7 +69030,7 @@
     </row>
     <row r="3006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3006" t="s">
-        <v>4151</v>
+        <v>5690</v>
       </c>
       <c r="B3006" t="s">
         <v>4153</v>
@@ -68979,7 +69047,7 @@
     </row>
     <row r="3007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3007" t="s">
-        <v>4151</v>
+        <v>5691</v>
       </c>
       <c r="B3007" t="s">
         <v>4154</v>
@@ -68996,7 +69064,7 @@
     </row>
     <row r="3008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3008" t="s">
-        <v>4151</v>
+        <v>5692</v>
       </c>
       <c r="B3008" t="s">
         <v>4154</v>
@@ -69013,7 +69081,7 @@
     </row>
     <row r="3009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3009" t="s">
-        <v>4151</v>
+        <v>5693</v>
       </c>
       <c r="B3009" t="s">
         <v>4154</v>
@@ -69030,7 +69098,7 @@
     </row>
     <row r="3010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3010" t="s">
-        <v>4151</v>
+        <v>5694</v>
       </c>
       <c r="B3010" t="s">
         <v>4154</v>
@@ -69047,7 +69115,7 @@
     </row>
     <row r="3011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3011" t="s">
-        <v>4151</v>
+        <v>5695</v>
       </c>
       <c r="B3011" t="s">
         <v>4154</v>
@@ -69064,7 +69132,7 @@
     </row>
     <row r="3012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3012" t="s">
-        <v>4151</v>
+        <v>5696</v>
       </c>
       <c r="B3012" t="s">
         <v>4155</v>
@@ -69081,7 +69149,7 @@
     </row>
     <row r="3013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3013" t="s">
-        <v>4151</v>
+        <v>5697</v>
       </c>
       <c r="B3013" t="s">
         <v>4156</v>
@@ -69098,7 +69166,7 @@
     </row>
     <row r="3014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3014" t="s">
-        <v>4151</v>
+        <v>5698</v>
       </c>
       <c r="B3014" t="s">
         <v>4157</v>
@@ -69115,7 +69183,7 @@
     </row>
     <row r="3015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3015" t="s">
-        <v>4151</v>
+        <v>5699</v>
       </c>
       <c r="B3015" t="s">
         <v>4158</v>
@@ -69132,7 +69200,7 @@
     </row>
     <row r="3016" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3016" t="s">
-        <v>4151</v>
+        <v>5700</v>
       </c>
       <c r="B3016" t="s">
         <v>4159</v>
@@ -69149,7 +69217,7 @@
     </row>
     <row r="3017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3017" t="s">
-        <v>4151</v>
+        <v>5701</v>
       </c>
       <c r="B3017" t="s">
         <v>1368</v>
@@ -69166,7 +69234,7 @@
     </row>
     <row r="3018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3018" t="s">
-        <v>4151</v>
+        <v>5702</v>
       </c>
       <c r="B3018" t="s">
         <v>4160</v>
@@ -69183,7 +69251,7 @@
     </row>
     <row r="3019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3019" t="s">
-        <v>4151</v>
+        <v>5703</v>
       </c>
       <c r="B3019" t="s">
         <v>4161</v>
@@ -86301,6 +86369,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E3000"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Beijing Inn Order System/AddressList.xlsx
+++ b/Beijing Inn Order System/AddressList.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$3000</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$E$4025</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12072" uniqueCount="5704">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12072" uniqueCount="5705">
   <si>
     <t>Rochester</t>
   </si>
@@ -17135,6 +17135,9 @@
   </si>
   <si>
     <t>ME5 0BA</t>
+  </si>
+  <si>
+    <t>Brompton High Street</t>
   </si>
 </sst>
 </file>
@@ -17955,10 +17958,14 @@
   <dimension ref="A2:E4025"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3093" sqref="J3093"/>
+      <selection activeCell="B4026" sqref="B4026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -44264,10 +44271,10 @@
         <v>2120</v>
       </c>
       <c r="B1549" t="s">
-        <v>5</v>
+        <v>5704</v>
       </c>
       <c r="C1549" t="s">
-        <v>2113</v>
+        <v>288</v>
       </c>
       <c r="D1549">
         <v>51.391669880000002</v>
@@ -86369,7 +86376,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E3000"/>
+  <autoFilter ref="A2:E4025"/>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
